--- a/bazaar/IELTS/Academic Reading/dancibiao .xlsx
+++ b/bazaar/IELTS/Academic Reading/dancibiao .xlsx
@@ -2064,8 +2064,8 @@
   <sheetPr/>
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="4"/>
